--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cxcl12-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cxcl12-Itga5.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>130.955829</v>
+        <v>93.62780766666667</v>
       </c>
       <c r="H2">
-        <v>392.867487</v>
+        <v>280.883423</v>
       </c>
       <c r="I2">
-        <v>0.5336535908353144</v>
+        <v>0.3228593149748609</v>
       </c>
       <c r="J2">
-        <v>0.5336535908353144</v>
+        <v>0.3228593149748609</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>28.72417333333333</v>
+        <v>10.34761366666667</v>
       </c>
       <c r="N2">
-        <v>86.17251999999999</v>
+        <v>31.042841</v>
       </c>
       <c r="O2">
-        <v>0.4233259107972328</v>
+        <v>0.2299953477621856</v>
       </c>
       <c r="P2">
-        <v>0.4233259107972328</v>
+        <v>0.2299953477621856</v>
       </c>
       <c r="Q2">
-        <v>3761.597931206359</v>
+        <v>968.8243821916381</v>
       </c>
       <c r="R2">
-        <v>33854.38138085724</v>
+        <v>8719.419439724743</v>
       </c>
       <c r="S2">
-        <v>0.2259093923905733</v>
+        <v>0.07425614042590413</v>
       </c>
       <c r="T2">
-        <v>0.2259093923905733</v>
+        <v>0.07425614042590414</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>130.955829</v>
+        <v>93.62780766666667</v>
       </c>
       <c r="H3">
-        <v>392.867487</v>
+        <v>280.883423</v>
       </c>
       <c r="I3">
-        <v>0.5336535908353144</v>
+        <v>0.3228593149748609</v>
       </c>
       <c r="J3">
-        <v>0.5336535908353144</v>
+        <v>0.3228593149748609</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>91.709587</v>
       </c>
       <c r="O3">
-        <v>0.4505269713084062</v>
+        <v>0.6794731949692173</v>
       </c>
       <c r="P3">
-        <v>0.4505269713084062</v>
+        <v>0.6794731949692174</v>
       </c>
       <c r="Q3">
-        <v>4003.301664277541</v>
+        <v>2862.189190941811</v>
       </c>
       <c r="R3">
-        <v>36029.71497849787</v>
+        <v>25759.7027184763</v>
       </c>
       <c r="S3">
-        <v>0.2404253360068896</v>
+        <v>0.2193742502715416</v>
       </c>
       <c r="T3">
-        <v>0.2404253360068896</v>
+        <v>0.2193742502715416</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>130.955829</v>
+        <v>93.62780766666667</v>
       </c>
       <c r="H4">
-        <v>392.867487</v>
+        <v>280.883423</v>
       </c>
       <c r="I4">
-        <v>0.5336535908353144</v>
+        <v>0.3228593149748609</v>
       </c>
       <c r="J4">
-        <v>0.5336535908353144</v>
+        <v>0.3228593149748609</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.559531999999999</v>
+        <v>4.073058666666666</v>
       </c>
       <c r="N4">
-        <v>25.678596</v>
+        <v>12.219176</v>
       </c>
       <c r="O4">
-        <v>0.126147117894361</v>
+        <v>0.09053145726859702</v>
       </c>
       <c r="P4">
-        <v>0.126147117894361</v>
+        <v>0.09053145726859703</v>
       </c>
       <c r="Q4">
-        <v>1120.920608912028</v>
+        <v>381.3515534577164</v>
       </c>
       <c r="R4">
-        <v>10088.28548020825</v>
+        <v>3432.163981119448</v>
       </c>
       <c r="S4">
-        <v>0.06731886243785148</v>
+        <v>0.02922892427741512</v>
       </c>
       <c r="T4">
-        <v>0.06731886243785148</v>
+        <v>0.02922892427741513</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>66.39541000000001</v>
+        <v>66.39541</v>
       </c>
       <c r="H5">
         <v>199.18623</v>
       </c>
       <c r="I5">
-        <v>0.2705656497465489</v>
+        <v>0.228953097635189</v>
       </c>
       <c r="J5">
-        <v>0.2705656497465489</v>
+        <v>0.228953097635189</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>28.72417333333333</v>
+        <v>10.34761366666667</v>
       </c>
       <c r="N5">
-        <v>86.17251999999999</v>
+        <v>31.042841</v>
       </c>
       <c r="O5">
-        <v>0.4233259107972328</v>
+        <v>0.2299953477621856</v>
       </c>
       <c r="P5">
-        <v>0.4233259107972328</v>
+        <v>0.2299953477621856</v>
       </c>
       <c r="Q5">
-        <v>1907.153265377734</v>
+        <v>687.0340519199366</v>
       </c>
       <c r="R5">
-        <v>17164.3793883996</v>
+        <v>6183.30646727943</v>
       </c>
       <c r="S5">
-        <v>0.1145374501094029</v>
+        <v>0.05265814731183491</v>
       </c>
       <c r="T5">
-        <v>0.1145374501094029</v>
+        <v>0.05265814731183492</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>66.39541000000001</v>
+        <v>66.39541</v>
       </c>
       <c r="H6">
         <v>199.18623</v>
       </c>
       <c r="I6">
-        <v>0.2705656497465489</v>
+        <v>0.228953097635189</v>
       </c>
       <c r="J6">
-        <v>0.2705656497465489</v>
+        <v>0.228953097635189</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>91.709587</v>
       </c>
       <c r="O6">
-        <v>0.4505269713084062</v>
+        <v>0.6794731949692173</v>
       </c>
       <c r="P6">
-        <v>0.4505269713084062</v>
+        <v>0.6794731949692174</v>
       </c>
       <c r="Q6">
-        <v>2029.698543265224</v>
+        <v>2029.698543265223</v>
       </c>
       <c r="R6">
         <v>18267.28688938701</v>
       </c>
       <c r="S6">
-        <v>0.1218971227204037</v>
+        <v>0.155567492748281</v>
       </c>
       <c r="T6">
-        <v>0.1218971227204037</v>
+        <v>0.155567492748281</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>66.39541000000001</v>
+        <v>66.39541</v>
       </c>
       <c r="H7">
         <v>199.18623</v>
       </c>
       <c r="I7">
-        <v>0.2705656497465489</v>
+        <v>0.228953097635189</v>
       </c>
       <c r="J7">
-        <v>0.2705656497465489</v>
+        <v>0.228953097635189</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.559531999999999</v>
+        <v>4.073058666666666</v>
       </c>
       <c r="N7">
-        <v>25.678596</v>
+        <v>12.219176</v>
       </c>
       <c r="O7">
-        <v>0.126147117894361</v>
+        <v>0.09053145726859702</v>
       </c>
       <c r="P7">
-        <v>0.126147117894361</v>
+        <v>0.09053145726859703</v>
       </c>
       <c r="Q7">
-        <v>568.31363654812</v>
+        <v>270.4324001273866</v>
       </c>
       <c r="R7">
-        <v>5114.822728933081</v>
+        <v>2433.89160114648</v>
       </c>
       <c r="S7">
-        <v>0.03413107691674228</v>
+        <v>0.02072745757507303</v>
       </c>
       <c r="T7">
-        <v>0.03413107691674228</v>
+        <v>0.02072745757507303</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>48.043585</v>
+        <v>129.9724656666667</v>
       </c>
       <c r="H8">
-        <v>144.130755</v>
+        <v>389.917397</v>
       </c>
       <c r="I8">
-        <v>0.1957807594181367</v>
+        <v>0.4481875873899502</v>
       </c>
       <c r="J8">
-        <v>0.1957807594181367</v>
+        <v>0.4481875873899502</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>28.72417333333333</v>
+        <v>10.34761366666667</v>
       </c>
       <c r="N8">
-        <v>86.17251999999999</v>
+        <v>31.042841</v>
       </c>
       <c r="O8">
-        <v>0.4233259107972328</v>
+        <v>0.2299953477621856</v>
       </c>
       <c r="P8">
-        <v>0.4233259107972328</v>
+        <v>0.2299953477621856</v>
       </c>
       <c r="Q8">
-        <v>1380.012263094733</v>
+        <v>1344.904862022764</v>
       </c>
       <c r="R8">
-        <v>12420.1103678526</v>
+        <v>12104.14375820488</v>
       </c>
       <c r="S8">
-        <v>0.08287906829725662</v>
+        <v>0.1030810600244465</v>
       </c>
       <c r="T8">
-        <v>0.08287906829725664</v>
+        <v>0.1030810600244466</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>48.043585</v>
+        <v>129.9724656666667</v>
       </c>
       <c r="H9">
-        <v>144.130755</v>
+        <v>389.917397</v>
       </c>
       <c r="I9">
-        <v>0.1957807594181367</v>
+        <v>0.4481875873899502</v>
       </c>
       <c r="J9">
-        <v>0.1957807594181367</v>
+        <v>0.4481875873899502</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>91.709587</v>
       </c>
       <c r="O9">
-        <v>0.4505269713084062</v>
+        <v>0.6794731949692173</v>
       </c>
       <c r="P9">
-        <v>0.4505269713084062</v>
+        <v>0.6794731949692174</v>
       </c>
       <c r="Q9">
-        <v>1468.685779449798</v>
+        <v>3973.240382553893</v>
       </c>
       <c r="R9">
-        <v>13218.17201504819</v>
+        <v>35759.16344298504</v>
       </c>
       <c r="S9">
-        <v>0.08820451258111285</v>
+        <v>0.3045314519493948</v>
       </c>
       <c r="T9">
-        <v>0.08820451258111285</v>
+        <v>0.3045314519493948</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>48.043585</v>
+        <v>129.9724656666667</v>
       </c>
       <c r="H10">
-        <v>144.130755</v>
+        <v>389.917397</v>
       </c>
       <c r="I10">
-        <v>0.1957807594181367</v>
+        <v>0.4481875873899502</v>
       </c>
       <c r="J10">
-        <v>0.1957807594181367</v>
+        <v>0.4481875873899502</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.559531999999999</v>
+        <v>4.073058666666666</v>
       </c>
       <c r="N10">
-        <v>25.678596</v>
+        <v>12.219176</v>
       </c>
       <c r="O10">
-        <v>0.126147117894361</v>
+        <v>0.09053145726859702</v>
       </c>
       <c r="P10">
-        <v>0.126147117894361</v>
+        <v>0.09053145726859703</v>
       </c>
       <c r="Q10">
-        <v>411.23060320222</v>
+        <v>529.3854777116524</v>
       </c>
       <c r="R10">
-        <v>3701.07542881998</v>
+        <v>4764.469299404872</v>
       </c>
       <c r="S10">
-        <v>0.02469717853976721</v>
+        <v>0.04057507541610887</v>
       </c>
       <c r="T10">
-        <v>0.02469717853976721</v>
+        <v>0.04057507541610888</v>
       </c>
     </row>
   </sheetData>
